--- a/tps/inputs/TEMPLATE_SCORE_Z.xlsx
+++ b/tps/inputs/TEMPLATE_SCORE_Z.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x05898109102\Documents\ppa\services\destrator\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Lins\Desktop\v5\tps\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355DAAF8-A924-47B9-81E3-7ABEC25A0D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERFORMANCE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PERFORMANCE!$A:$I</definedName>
     <definedName name="BillName">PERFORMANCE!$B$9</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
     <definedName name="ColumnTitleRegion1..G6.1">PERFORMANCE!$H$9</definedName>
@@ -23,21 +23,20 @@
     <definedName name="CustomerLookup">#REF!</definedName>
     <definedName name="Deposit">PERFORMANCE!#REF!</definedName>
     <definedName name="InvoiceSubtotal">PERFORMANCE!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PERFORMANCE!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">PERFORMANCE!#REF!</definedName>
     <definedName name="RowTitleRegion1..H3">PERFORMANCE!$G$3</definedName>
     <definedName name="RowTitleRegion2..C8">PERFORMANCE!#REF!</definedName>
     <definedName name="RowTitleRegion3..E8">PERFORMANCE!$D$9</definedName>
     <definedName name="RowTitleRegion4..H18">PERFORMANCE!#REF!</definedName>
     <definedName name="Title2">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">PERFORMANCE!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NOME</t>
   </si>
@@ -76,11 +75,14 @@
   <si>
     <t>ALUNO</t>
   </si>
+  <si>
+    <t>NOTA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -88,7 +90,7 @@
     <numFmt numFmtId="167" formatCode="00000"/>
     <numFmt numFmtId="168" formatCode="[&lt;=9999999]###\-####;###\-###\-####"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3"/>
@@ -199,15 +201,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -503,9 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -557,6 +547,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="5" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,38 +565,38 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Bottom Border" xfId="24"/>
-    <cellStyle name="Date" xfId="15"/>
-    <cellStyle name="Ênfase1" xfId="12" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Invoice description" xfId="21"/>
-    <cellStyle name="Invoice no. &amp; contact info" xfId="22"/>
-    <cellStyle name="Left Align" xfId="13"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moeda [0]" xfId="10" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="12" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Bottom Border" xfId="24" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma" xfId="7" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="8" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="9" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="10" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Date" xfId="15" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="16" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Invoice description" xfId="21" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Invoice no. &amp; contact info" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Left Align" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Phone" xfId="20"/>
-    <cellStyle name="Porcentagem" xfId="11" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Right Align" xfId="14"/>
-    <cellStyle name="Right Indent" xfId="25"/>
-    <cellStyle name="Separador de milhares [0]" xfId="8" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="16" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Top align" xfId="23"/>
+    <cellStyle name="Percent" xfId="11" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Phone" xfId="20" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Right Align" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Right Indent" xfId="25" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Top align" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="7" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Zip Code" xfId="19"/>
-    <cellStyle name="znavigation cells" xfId="26"/>
+    <cellStyle name="Zip Code" xfId="19" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="znavigation cells" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -770,7 +763,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Service Invoice" pivot="0" count="4">
+    <tableStyle name="Service Invoice" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -808,7 +801,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9086B0F-3065-49D6-B67E-53B973157C08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9086B0F-3065-49D6-B67E-53B973157C08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1087,23 +1080,23 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="27"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="4"/>
@@ -1122,53 +1115,53 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1178,8 +1171,10 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1189,7 +1184,7 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1789,22 +1784,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="872" yWindow="452" count="11">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select customer name from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" prompt="Select customer name in this cell. Press ALT+DOWN ARROW to open drop-down list, then ENTER to make selection. Add more customers to Customers worksheet to expand selection list" sqref="B9">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select customer name from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" prompt="Select customer name in this cell. Press ALT+DOWN ARROW to open drop-down list, then ENTER to make selection. Add more customers to Customers worksheet to expand selection list" sqref="B9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>CustomerLookup</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create Service Invoice in this workbook. Enter company &amp; invoice details in this worksheet, &amp; customer details in Customers worksheet. Select cell J1 to navigate to Customers worksheet" sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter company name in below cell. Enter Invoice Number, Invoice Date and Date Due in cells H1, H2 and H3" sqref="B4:B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Customer Phone number is automatically updated in cell at right" sqref="C9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="C10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Flat Fee in this column under this heading" sqref="G10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Deposit Amount in cell at right" sqref="H10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company phone number in cell at right" sqref="C4:C5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Customers worksheet. This cell will not print" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Date in cell at right" sqref="G4:G7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company email address in this cell" sqref="E7:F7 B7:C7 D5 B3 B6:G6 D3 G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create Service Invoice in this workbook. Enter company &amp; invoice details in this worksheet, &amp; customer details in Customers worksheet. Select cell J1 to navigate to Customers worksheet" sqref="A3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter company name in below cell. Enter Invoice Number, Invoice Date and Date Due in cells H1, H2 and H3" sqref="B4:B5" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Customer Phone number is automatically updated in cell at right" sqref="C9" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="C10" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Flat Fee in this column under this heading" sqref="G10" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Deposit Amount in cell at right" sqref="H10" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company phone number in cell at right" sqref="C4:C5" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Customers worksheet. This cell will not print" sqref="J3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Date in cell at right" sqref="G4:G7" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company email address in this cell" sqref="E7:F7 B7:C7 D5 B3 B6:G6 D3 G3" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" location="Customers!A1" tooltip="Select to navigate to Customers worksheet" display="Customers"/>
+    <hyperlink ref="J3" location="Customers!A1" tooltip="Select to navigate to Customers worksheet" display="Customers" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
